--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.1145242863308</v>
+        <v>46.96651666666666</v>
       </c>
       <c r="H2">
-        <v>42.1145242863308</v>
+        <v>140.89955</v>
       </c>
       <c r="I2">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="J2">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N2">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O2">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P2">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q2">
-        <v>6294.429360166403</v>
+        <v>7598.011411817626</v>
       </c>
       <c r="R2">
-        <v>6294.429360166403</v>
+        <v>68382.10270635864</v>
       </c>
       <c r="S2">
-        <v>0.6124047683107093</v>
+        <v>0.5686560978447667</v>
       </c>
       <c r="T2">
-        <v>0.6124047683107093</v>
+        <v>0.5686560978447667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.1145242863308</v>
+        <v>46.96651666666666</v>
       </c>
       <c r="H3">
-        <v>42.1145242863308</v>
+        <v>140.89955</v>
       </c>
       <c r="I3">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="J3">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N3">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O3">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P3">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q3">
-        <v>26.37856009807151</v>
+        <v>31.88744682566666</v>
       </c>
       <c r="R3">
-        <v>26.37856009807151</v>
+        <v>286.987021431</v>
       </c>
       <c r="S3">
-        <v>0.002566452820562361</v>
+        <v>0.00238654433368089</v>
       </c>
       <c r="T3">
-        <v>0.002566452820562361</v>
+        <v>0.00238654433368089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.1145242863308</v>
+        <v>46.96651666666666</v>
       </c>
       <c r="H4">
-        <v>42.1145242863308</v>
+        <v>140.89955</v>
       </c>
       <c r="I4">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="J4">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N4">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O4">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P4">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q4">
-        <v>61.80738572540373</v>
+        <v>82.81142480868887</v>
       </c>
       <c r="R4">
-        <v>61.80738572540373</v>
+        <v>745.3028232781999</v>
       </c>
       <c r="S4">
-        <v>0.006013434351109448</v>
+        <v>0.006197835082931123</v>
       </c>
       <c r="T4">
-        <v>0.006013434351109448</v>
+        <v>0.006197835082931123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.1145242863308</v>
+        <v>46.96651666666666</v>
       </c>
       <c r="H5">
-        <v>42.1145242863308</v>
+        <v>140.89955</v>
       </c>
       <c r="I5">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="J5">
-        <v>0.6228350783282196</v>
+        <v>0.5808027674561179</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N5">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O5">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P5">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q5">
-        <v>19.01904833578808</v>
+        <v>47.59699518639999</v>
       </c>
       <c r="R5">
-        <v>19.01904833578808</v>
+        <v>428.3729566775999</v>
       </c>
       <c r="S5">
-        <v>0.001850422845838493</v>
+        <v>0.003562290194739184</v>
       </c>
       <c r="T5">
-        <v>0.001850422845838493</v>
+        <v>0.003562290194739185</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.2013244349873</v>
+        <v>14.34807866666667</v>
       </c>
       <c r="H6">
-        <v>14.2013244349873</v>
+        <v>43.04423600000001</v>
       </c>
       <c r="I6">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="J6">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N6">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O6">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P6">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q6">
-        <v>2122.527441342746</v>
+        <v>2321.161397186657</v>
       </c>
       <c r="R6">
-        <v>2122.527441342746</v>
+        <v>20890.45257467991</v>
       </c>
       <c r="S6">
-        <v>0.2065073498440633</v>
+        <v>0.1737221110959491</v>
       </c>
       <c r="T6">
-        <v>0.2065073498440633</v>
+        <v>0.1737221110959491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.2013244349873</v>
+        <v>14.34807866666667</v>
       </c>
       <c r="H7">
-        <v>14.2013244349873</v>
+        <v>43.04423600000001</v>
       </c>
       <c r="I7">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="J7">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N7">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O7">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P7">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q7">
-        <v>8.8950426587654</v>
+        <v>9.741484529946668</v>
       </c>
       <c r="R7">
-        <v>8.8950426587654</v>
+        <v>87.67336076952002</v>
       </c>
       <c r="S7">
-        <v>0.000865426590220895</v>
+        <v>0.0007290795288091624</v>
       </c>
       <c r="T7">
-        <v>0.000865426590220895</v>
+        <v>0.0007290795288091624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.2013244349873</v>
+        <v>14.34807866666667</v>
       </c>
       <c r="H8">
-        <v>14.2013244349873</v>
+        <v>43.04423600000001</v>
       </c>
       <c r="I8">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="J8">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N8">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O8">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P8">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q8">
-        <v>20.84190079406295</v>
+        <v>25.29855143583822</v>
       </c>
       <c r="R8">
-        <v>20.84190079406295</v>
+        <v>227.686962922544</v>
       </c>
       <c r="S8">
-        <v>0.002027773876964358</v>
+        <v>0.001893413257876032</v>
       </c>
       <c r="T8">
-        <v>0.002027773876964358</v>
+        <v>0.001893413257876032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.2013244349873</v>
+        <v>14.34807866666667</v>
       </c>
       <c r="H9">
-        <v>14.2013244349873</v>
+        <v>43.04423600000001</v>
       </c>
       <c r="I9">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="J9">
-        <v>0.2100245263770115</v>
+        <v>0.1774328689611448</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N9">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O9">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P9">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q9">
-        <v>6.413361671258325</v>
+        <v>14.540687274688</v>
       </c>
       <c r="R9">
-        <v>6.413361671258325</v>
+        <v>130.866185472192</v>
       </c>
       <c r="S9">
-        <v>0.0006239760657629983</v>
+        <v>0.001088265078510467</v>
       </c>
       <c r="T9">
-        <v>0.0006239760657629983</v>
+        <v>0.001088265078510467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.57275006497853</v>
+        <v>1.746361333333333</v>
       </c>
       <c r="H10">
-        <v>1.57275006497853</v>
+        <v>5.239084</v>
       </c>
       <c r="I10">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="J10">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N10">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O10">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P10">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q10">
-        <v>235.0629468802429</v>
+        <v>282.5177228704503</v>
       </c>
       <c r="R10">
-        <v>235.0629468802429</v>
+        <v>2542.659505834052</v>
       </c>
       <c r="S10">
-        <v>0.02287001112978129</v>
+        <v>0.02114440439107827</v>
       </c>
       <c r="T10">
-        <v>0.02287001112978129</v>
+        <v>0.02114440439107827</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.57275006497853</v>
+        <v>1.746361333333333</v>
       </c>
       <c r="H11">
-        <v>1.57275006497853</v>
+        <v>5.239084</v>
       </c>
       <c r="I11">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="J11">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N11">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O11">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P11">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q11">
-        <v>0.9850967762622339</v>
+        <v>1.185674563653333</v>
       </c>
       <c r="R11">
-        <v>0.9850967762622339</v>
+        <v>10.67107107288</v>
       </c>
       <c r="S11">
-        <v>9.584315408292252E-05</v>
+        <v>8.873914951380763E-05</v>
       </c>
       <c r="T11">
-        <v>9.584315408292252E-05</v>
+        <v>8.873914951380764E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.57275006497853</v>
+        <v>1.746361333333333</v>
       </c>
       <c r="H12">
-        <v>1.57275006497853</v>
+        <v>5.239084</v>
       </c>
       <c r="I12">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="J12">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N12">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O12">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P12">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q12">
-        <v>2.308172098891134</v>
+        <v>3.079186631415111</v>
       </c>
       <c r="R12">
-        <v>2.308172098891134</v>
+        <v>27.712679682736</v>
       </c>
       <c r="S12">
-        <v>0.0002245693006562392</v>
+        <v>0.0002304548071134587</v>
       </c>
       <c r="T12">
-        <v>0.0002245693006562392</v>
+        <v>0.0002304548071134587</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.57275006497853</v>
+        <v>1.746361333333333</v>
       </c>
       <c r="H13">
-        <v>1.57275006497853</v>
+        <v>5.239084</v>
       </c>
       <c r="I13">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="J13">
-        <v>0.02325952688558694</v>
+        <v>0.02159605538935411</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N13">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O13">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P13">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q13">
-        <v>0.7102587530746294</v>
+        <v>1.769804487872</v>
       </c>
       <c r="R13">
-        <v>0.7102587530746294</v>
+        <v>15.928240390848</v>
       </c>
       <c r="S13">
-        <v>6.910330106648822E-05</v>
+        <v>0.0001324570416485713</v>
       </c>
       <c r="T13">
-        <v>6.910330106648822E-05</v>
+        <v>0.0001324570416485713</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.728858469599009</v>
+        <v>17.80387266666667</v>
       </c>
       <c r="H14">
-        <v>9.728858469599009</v>
+        <v>53.411618</v>
       </c>
       <c r="I14">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="J14">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>149.459823346726</v>
+        <v>161.7750676666667</v>
       </c>
       <c r="N14">
-        <v>149.459823346726</v>
+        <v>485.325203</v>
       </c>
       <c r="O14">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="P14">
-        <v>0.9832534961815145</v>
+        <v>0.9790864123038654</v>
       </c>
       <c r="Q14">
-        <v>1454.073468231567</v>
+        <v>2880.222705378717</v>
       </c>
       <c r="R14">
-        <v>1454.073468231567</v>
+        <v>25922.00434840845</v>
       </c>
       <c r="S14">
-        <v>0.1414713668969606</v>
+        <v>0.2155637989720713</v>
       </c>
       <c r="T14">
-        <v>0.1414713668969606</v>
+        <v>0.2155637989720713</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.728858469599009</v>
+        <v>17.80387266666667</v>
       </c>
       <c r="H15">
-        <v>9.728858469599009</v>
+        <v>53.411618</v>
       </c>
       <c r="I15">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="J15">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.626353034851524</v>
+        <v>0.67894</v>
       </c>
       <c r="N15">
-        <v>0.626353034851524</v>
+        <v>2.03682</v>
       </c>
       <c r="O15">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199978</v>
       </c>
       <c r="P15">
-        <v>0.004120597747081131</v>
+        <v>0.004109044356199979</v>
       </c>
       <c r="Q15">
-        <v>6.093700028074293</v>
+        <v>12.08776130830667</v>
       </c>
       <c r="R15">
-        <v>6.093700028074293</v>
+        <v>108.78985177476</v>
       </c>
       <c r="S15">
-        <v>0.0005928751822149521</v>
+        <v>0.0009046813441961188</v>
       </c>
       <c r="T15">
-        <v>0.0005928751822149521</v>
+        <v>0.0009046813441961189</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.728858469599009</v>
+        <v>17.80387266666667</v>
       </c>
       <c r="H16">
-        <v>9.728858469599009</v>
+        <v>53.411618</v>
       </c>
       <c r="I16">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="J16">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.46760260914225</v>
+        <v>1.763201333333333</v>
       </c>
       <c r="N16">
-        <v>1.46760260914225</v>
+        <v>5.289604</v>
       </c>
       <c r="O16">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="P16">
-        <v>0.009654938458589045</v>
+        <v>0.01067115280816804</v>
       </c>
       <c r="Q16">
-        <v>14.27809807395918</v>
+        <v>31.39181202436355</v>
       </c>
       <c r="R16">
-        <v>14.27809807395918</v>
+        <v>282.526308219272</v>
       </c>
       <c r="S16">
-        <v>0.001389160929859001</v>
+        <v>0.002349449660247428</v>
       </c>
       <c r="T16">
-        <v>0.001389160929859001</v>
+        <v>0.002349449660247428</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.728858469599009</v>
+        <v>17.80387266666667</v>
       </c>
       <c r="H17">
-        <v>9.728858469599009</v>
+        <v>53.411618</v>
       </c>
       <c r="I17">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="J17">
-        <v>0.143880868409182</v>
+        <v>0.2201683081933832</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.451603067067319</v>
+        <v>1.013424</v>
       </c>
       <c r="N17">
-        <v>0.451603067067319</v>
+        <v>3.040272</v>
       </c>
       <c r="O17">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766587</v>
       </c>
       <c r="P17">
-        <v>0.002970967612815416</v>
+        <v>0.006133390531766588</v>
       </c>
       <c r="Q17">
-        <v>4.393582323934776</v>
+        <v>18.042871853344</v>
       </c>
       <c r="R17">
-        <v>4.393582323934776</v>
+        <v>162.385846680096</v>
       </c>
       <c r="S17">
-        <v>0.0004274654001474365</v>
+        <v>0.001350378216868365</v>
       </c>
       <c r="T17">
-        <v>0.0004274654001474365</v>
+        <v>0.001350378216868365</v>
       </c>
     </row>
   </sheetData>
